--- a/eb-ground-station/power-system/ground_station_power_board/UPD-board/UPD-board-mouser.xlsx
+++ b/eb-ground-station/power-system/ground_station_power_board/UPD-board/UPD-board-mouser.xlsx
@@ -326,22 +326,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="50.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="36.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,25 +351,25 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -378,31 +378,27 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">B2*6</f>
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>1924143</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -411,31 +407,27 @@
         <v>11</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">B3*6</f>
         <v>6</v>
       </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>1827923</v>
       </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="0" t="s">
         <v>19</v>
       </c>
     </row>
@@ -444,31 +436,27 @@
         <v>12</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">B4*6</f>
         <v>12</v>
       </c>
+      <c r="C4" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>1827486</v>
       </c>
+      <c r="H4" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="0" t="s">
         <v>24</v>
       </c>
     </row>
@@ -477,31 +465,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">B5*6</f>
         <v>6</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>1720806</v>
       </c>
+      <c r="H5" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="0" t="s">
         <v>29</v>
       </c>
     </row>
@@ -510,31 +494,27 @@
         <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">B6*6</f>
         <v>60</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -543,31 +523,27 @@
         <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">B7*6</f>
         <v>72</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="0" t="s">
         <v>43</v>
       </c>
     </row>
@@ -576,31 +552,27 @@
         <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">B8*6</f>
         <v>6</v>
       </c>
+      <c r="C8" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="D8" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -609,31 +581,27 @@
         <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">B9*6</f>
         <v>6</v>
       </c>
+      <c r="C9" s="0" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="0" t="s">
         <v>57</v>
       </c>
     </row>
@@ -642,25 +610,21 @@
         <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">B10*6</f>
         <v>18</v>
       </c>
+      <c r="E10" s="0" t="s">
+        <v>58</v>
+      </c>
       <c r="F10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>1851290</v>
       </c>
+      <c r="H10" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -669,25 +633,21 @@
         <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">B11*6</f>
         <v>6</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>1942549</v>
       </c>
+      <c r="H11" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="0" t="s">
         <v>63</v>
       </c>
     </row>
@@ -696,45 +656,41 @@
         <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1996139</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">B12*6</f>
-        <v>6</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>1996139</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
-        <v>1</v>
+      <c r="E13" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>1912249</v>
       </c>
+      <c r="H13" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="0" t="s">
         <v>69</v>
       </c>
     </row>
